--- a/Version1/TestCaseSuite_v1.xlsx
+++ b/Version1/TestCaseSuite_v1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TESTER\GURU_BANK\GURU99_BANK\Version1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7640" tabRatio="613" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7635" tabRatio="613" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Changelog" sheetId="1" r:id="rId1"/>
@@ -38,7 +33,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'New Account'!$A$1:$H$28</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'New Customer'!$A$1:$H$29</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1471,7 +1466,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="13">
     <font>
       <sz val="10"/>
@@ -1718,12 +1713,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1738,6 +1727,12 @@
     </xf>
     <xf numFmtId="14" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1799,7 +1794,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1834,7 +1829,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2011,7 +2006,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2028,14 +2023,14 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.1796875" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" customWidth="1"/>
-    <col min="3" max="3" width="16.26953125" customWidth="1"/>
-    <col min="4" max="4" width="15.1796875" customWidth="1"/>
-    <col min="5" max="5" width="27.26953125" customWidth="1"/>
-    <col min="6" max="20" width="15.1796875" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" customWidth="1"/>
+    <col min="6" max="20" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="12.75" customHeight="1">
@@ -2172,16 +2167,16 @@
     </row>
     <row r="7" spans="1:20" ht="12.75" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="29" t="s">
         <v>3</v>
       </c>
       <c r="F7" s="1"/>
@@ -2201,20 +2196,20 @@
       <c r="T7" s="1"/>
     </row>
     <row r="8" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A8" s="30"/>
-      <c r="B8" s="32">
+      <c r="A8" s="28"/>
+      <c r="B8" s="30">
         <v>1</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="32">
         <v>44896</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="30"/>
+      <c r="F8" s="28"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -2231,20 +2226,20 @@
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A9" s="30"/>
-      <c r="B9" s="32">
+      <c r="A9" s="28"/>
+      <c r="B9" s="30">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="32">
         <v>44906</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="30"/>
+      <c r="F9" s="28"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -2262,10 +2257,10 @@
     </row>
     <row r="10" spans="1:20" ht="12.75" customHeight="1">
       <c r="A10" s="2"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
       <c r="F10" s="3"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -2700,7 +2695,7 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row r="30" spans="1:20" ht="12.5">
+    <row r="30" spans="1:20">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2722,7 +2717,7 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row r="31" spans="1:20" ht="12.5">
+    <row r="31" spans="1:20">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2744,7 +2739,7 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row r="32" spans="1:20" ht="12.5">
+    <row r="32" spans="1:20">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2766,7 +2761,7 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row r="33" spans="1:20" ht="12.5">
+    <row r="33" spans="1:20">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2788,7 +2783,7 @@
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
     </row>
-    <row r="34" spans="1:20" ht="12.5">
+    <row r="34" spans="1:20">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2810,7 +2805,7 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
     </row>
-    <row r="35" spans="1:20" ht="12.5">
+    <row r="35" spans="1:20">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2832,7 +2827,7 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
     </row>
-    <row r="36" spans="1:20" ht="12.5">
+    <row r="36" spans="1:20">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2854,7 +2849,7 @@
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
     </row>
-    <row r="37" spans="1:20" ht="12.5">
+    <row r="37" spans="1:20">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2876,7 +2871,7 @@
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
     </row>
-    <row r="38" spans="1:20" ht="12.5">
+    <row r="38" spans="1:20">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2898,7 +2893,7 @@
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
     </row>
-    <row r="39" spans="1:20" ht="12.5">
+    <row r="39" spans="1:20">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2920,7 +2915,7 @@
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
     </row>
-    <row r="40" spans="1:20" ht="12.5">
+    <row r="40" spans="1:20">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2942,7 +2937,7 @@
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
     </row>
-    <row r="41" spans="1:20" ht="12.5">
+    <row r="41" spans="1:20">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2964,7 +2959,7 @@
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
     </row>
-    <row r="42" spans="1:20" ht="12.5">
+    <row r="42" spans="1:20">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2986,7 +2981,7 @@
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
     </row>
-    <row r="43" spans="1:20" ht="12.5">
+    <row r="43" spans="1:20">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -3008,7 +3003,7 @@
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
     </row>
-    <row r="44" spans="1:20" ht="12.5">
+    <row r="44" spans="1:20">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -3030,7 +3025,7 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
     </row>
-    <row r="45" spans="1:20" ht="12.5">
+    <row r="45" spans="1:20">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -3052,7 +3047,7 @@
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
     </row>
-    <row r="46" spans="1:20" ht="12.5">
+    <row r="46" spans="1:20">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -3074,7 +3069,7 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
-    <row r="47" spans="1:20" ht="12.5">
+    <row r="47" spans="1:20">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -3096,7 +3091,7 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
     </row>
-    <row r="48" spans="1:20" ht="12.5">
+    <row r="48" spans="1:20">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -3118,7 +3113,7 @@
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
     </row>
-    <row r="49" spans="1:20" ht="12.5">
+    <row r="49" spans="1:20">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -3140,7 +3135,7 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
     </row>
-    <row r="50" spans="1:20" ht="12.5">
+    <row r="50" spans="1:20">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -3162,7 +3157,7 @@
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
     </row>
-    <row r="51" spans="1:20" ht="12.5">
+    <row r="51" spans="1:20">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -3184,7 +3179,7 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row r="52" spans="1:20" ht="12.5">
+    <row r="52" spans="1:20">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -3206,7 +3201,7 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row r="53" spans="1:20" ht="12.5">
+    <row r="53" spans="1:20">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -3228,7 +3223,7 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
-    <row r="54" spans="1:20" ht="12.5">
+    <row r="54" spans="1:20">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -3250,7 +3245,7 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
-    <row r="55" spans="1:20" ht="12.5">
+    <row r="55" spans="1:20">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -3272,7 +3267,7 @@
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
-    <row r="56" spans="1:20" ht="12.5">
+    <row r="56" spans="1:20">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -3294,7 +3289,7 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row r="57" spans="1:20" ht="12.5">
+    <row r="57" spans="1:20">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -3316,7 +3311,7 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
     </row>
-    <row r="58" spans="1:20" ht="12.5">
+    <row r="58" spans="1:20">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -3338,7 +3333,7 @@
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
     </row>
-    <row r="59" spans="1:20" ht="12.5">
+    <row r="59" spans="1:20">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -3360,7 +3355,7 @@
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
-    <row r="60" spans="1:20" ht="12.5">
+    <row r="60" spans="1:20">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -3382,7 +3377,7 @@
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
     </row>
-    <row r="61" spans="1:20" ht="12.5">
+    <row r="61" spans="1:20">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -3404,7 +3399,7 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
-    <row r="62" spans="1:20" ht="12.5">
+    <row r="62" spans="1:20">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -3426,7 +3421,7 @@
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
     </row>
-    <row r="63" spans="1:20" ht="12.5">
+    <row r="63" spans="1:20">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -3448,7 +3443,7 @@
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
     </row>
-    <row r="64" spans="1:20" ht="12.5">
+    <row r="64" spans="1:20">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -3470,7 +3465,7 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
     </row>
-    <row r="65" spans="1:20" ht="12.5">
+    <row r="65" spans="1:20">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -3492,7 +3487,7 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
     </row>
-    <row r="66" spans="1:20" ht="12.5">
+    <row r="66" spans="1:20">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -3514,7 +3509,7 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
     </row>
-    <row r="67" spans="1:20" ht="12.5">
+    <row r="67" spans="1:20">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -3536,7 +3531,7 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
-    <row r="68" spans="1:20" ht="12.5">
+    <row r="68" spans="1:20">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -3558,7 +3553,7 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
     </row>
-    <row r="69" spans="1:20" ht="12.5">
+    <row r="69" spans="1:20">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -3580,7 +3575,7 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
-    <row r="70" spans="1:20" ht="12.5">
+    <row r="70" spans="1:20">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -3602,7 +3597,7 @@
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
     </row>
-    <row r="71" spans="1:20" ht="12.5">
+    <row r="71" spans="1:20">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -3624,7 +3619,7 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
     </row>
-    <row r="72" spans="1:20" ht="12.5">
+    <row r="72" spans="1:20">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -3646,7 +3641,7 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
     </row>
-    <row r="73" spans="1:20" ht="12.5">
+    <row r="73" spans="1:20">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -3668,7 +3663,7 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
     </row>
-    <row r="74" spans="1:20" ht="12.5">
+    <row r="74" spans="1:20">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -3690,7 +3685,7 @@
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
     </row>
-    <row r="75" spans="1:20" ht="12.5">
+    <row r="75" spans="1:20">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -3712,7 +3707,7 @@
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
     </row>
-    <row r="76" spans="1:20" ht="12.5">
+    <row r="76" spans="1:20">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -3734,7 +3729,7 @@
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
     </row>
-    <row r="77" spans="1:20" ht="12.5">
+    <row r="77" spans="1:20">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -3756,7 +3751,7 @@
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
     </row>
-    <row r="78" spans="1:20" ht="12.5">
+    <row r="78" spans="1:20">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -3778,7 +3773,7 @@
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
     </row>
-    <row r="79" spans="1:20" ht="12.5">
+    <row r="79" spans="1:20">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -3800,7 +3795,7 @@
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
     </row>
-    <row r="80" spans="1:20" ht="12.5">
+    <row r="80" spans="1:20">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -3822,7 +3817,7 @@
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
     </row>
-    <row r="81" spans="1:20" ht="12.5">
+    <row r="81" spans="1:20">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -3844,7 +3839,7 @@
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
     </row>
-    <row r="82" spans="1:20" ht="12.5">
+    <row r="82" spans="1:20">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -3866,7 +3861,7 @@
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
     </row>
-    <row r="83" spans="1:20" ht="12.5">
+    <row r="83" spans="1:20">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -3888,7 +3883,7 @@
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
     </row>
-    <row r="84" spans="1:20" ht="12.5">
+    <row r="84" spans="1:20">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -3910,7 +3905,7 @@
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
     </row>
-    <row r="85" spans="1:20" ht="12.5">
+    <row r="85" spans="1:20">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -3932,7 +3927,7 @@
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
     </row>
-    <row r="86" spans="1:20" ht="12.5">
+    <row r="86" spans="1:20">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -3954,7 +3949,7 @@
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
     </row>
-    <row r="87" spans="1:20" ht="12.5">
+    <row r="87" spans="1:20">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -3976,7 +3971,7 @@
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
     </row>
-    <row r="88" spans="1:20" ht="12.5">
+    <row r="88" spans="1:20">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -3998,7 +3993,7 @@
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
     </row>
-    <row r="89" spans="1:20" ht="12.5">
+    <row r="89" spans="1:20">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -4020,7 +4015,7 @@
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
     </row>
-    <row r="90" spans="1:20" ht="12.5">
+    <row r="90" spans="1:20">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -4042,7 +4037,7 @@
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
     </row>
-    <row r="91" spans="1:20" ht="12.5">
+    <row r="91" spans="1:20">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -4064,7 +4059,7 @@
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
     </row>
-    <row r="92" spans="1:20" ht="12.5">
+    <row r="92" spans="1:20">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -4086,7 +4081,7 @@
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
     </row>
-    <row r="93" spans="1:20" ht="12.5">
+    <row r="93" spans="1:20">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -4108,7 +4103,7 @@
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
     </row>
-    <row r="94" spans="1:20" ht="12.5">
+    <row r="94" spans="1:20">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -4130,7 +4125,7 @@
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
     </row>
-    <row r="95" spans="1:20" ht="12.5">
+    <row r="95" spans="1:20">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -4152,7 +4147,7 @@
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
     </row>
-    <row r="96" spans="1:20" ht="12.5">
+    <row r="96" spans="1:20">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -4174,7 +4169,7 @@
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
     </row>
-    <row r="97" spans="1:20" ht="12.5">
+    <row r="97" spans="1:20">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -4196,7 +4191,7 @@
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
     </row>
-    <row r="98" spans="1:20" ht="12.5">
+    <row r="98" spans="1:20">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -4218,7 +4213,7 @@
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
     </row>
-    <row r="99" spans="1:20" ht="12.5">
+    <row r="99" spans="1:20">
       <c r="A99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
@@ -4251,22 +4246,22 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" customWidth="1"/>
-    <col min="2" max="2" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.26953125" customWidth="1"/>
-    <col min="4" max="4" width="39.1796875" customWidth="1"/>
-    <col min="5" max="5" width="15.1796875" customWidth="1"/>
-    <col min="6" max="6" width="40.81640625" customWidth="1"/>
-    <col min="7" max="7" width="29.7265625" customWidth="1"/>
-    <col min="8" max="22" width="15.1796875" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="40.85546875" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" customWidth="1"/>
+    <col min="8" max="22" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.5">
+    <row r="1" spans="1:25" ht="15.75">
       <c r="A1" s="17" t="s">
         <v>7</v>
       </c>
@@ -4306,11 +4301,11 @@
       <c r="U1" s="4"/>
       <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="1:25" ht="46.5">
+    <row r="2" spans="1:25" ht="47.25">
       <c r="A2" s="18" t="s">
         <v>366</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="33" t="s">
         <v>367</v>
       </c>
       <c r="C2" s="18" t="s">
@@ -4340,11 +4335,11 @@
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
     </row>
-    <row r="3" spans="1:25" ht="31">
+    <row r="3" spans="1:25" ht="31.5">
       <c r="A3" s="18" t="s">
         <v>369</v>
       </c>
-      <c r="B3" s="28"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="18" t="s">
         <v>317</v>
       </c>
@@ -4377,11 +4372,11 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:25" ht="31">
+    <row r="4" spans="1:25" ht="31.5">
       <c r="A4" s="18" t="s">
         <v>370</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="18" t="s">
         <v>371</v>
       </c>
@@ -6780,13 +6775,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="15.1796875" customWidth="1"/>
-    <col min="4" max="4" width="21.7265625" customWidth="1"/>
-    <col min="5" max="5" width="15.1796875" customWidth="1"/>
-    <col min="6" max="6" width="24.26953125" customWidth="1"/>
-    <col min="7" max="19" width="15.1796875" customWidth="1"/>
+    <col min="1" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" customWidth="1"/>
+    <col min="7" max="19" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1">
@@ -6964,13 +6959,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="15.1796875" customWidth="1"/>
-    <col min="4" max="4" width="22.54296875" customWidth="1"/>
-    <col min="5" max="5" width="15.1796875" customWidth="1"/>
-    <col min="6" max="6" width="19.26953125" customWidth="1"/>
-    <col min="7" max="19" width="15.1796875" customWidth="1"/>
+    <col min="1" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="7" max="19" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1">
@@ -7058,11 +7053,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="15.1796875" customWidth="1"/>
-    <col min="4" max="4" width="20.81640625" customWidth="1"/>
-    <col min="5" max="20" width="15.1796875" customWidth="1"/>
+    <col min="1" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="5" max="20" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1">
@@ -7298,11 +7293,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="5" width="15.1796875" customWidth="1"/>
-    <col min="6" max="6" width="21.54296875" customWidth="1"/>
-    <col min="7" max="20" width="15.1796875" customWidth="1"/>
+    <col min="1" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" customWidth="1"/>
+    <col min="7" max="20" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1">
@@ -7444,20 +7439,20 @@
       <selection pane="bottomLeft" activeCell="C8" sqref="A1:H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="17.26953125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.26953125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="39.1796875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="15.1796875" style="13" customWidth="1"/>
-    <col min="6" max="6" width="41.81640625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="29.7265625" style="13" customWidth="1"/>
-    <col min="8" max="22" width="15.1796875" style="13" customWidth="1"/>
-    <col min="23" max="16384" width="12.54296875" style="13"/>
+    <col min="1" max="1" width="11.140625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="41.85546875" style="13" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" style="13" customWidth="1"/>
+    <col min="8" max="22" width="15.140625" style="13" customWidth="1"/>
+    <col min="23" max="16384" width="12.5703125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.5">
+    <row r="1" spans="1:25" ht="15.75">
       <c r="A1" s="17" t="s">
         <v>7</v>
       </c>
@@ -7497,11 +7492,11 @@
       <c r="U1" s="12"/>
       <c r="V1" s="12"/>
     </row>
-    <row r="2" spans="1:25" ht="46.5">
+    <row r="2" spans="1:25" ht="47.25">
       <c r="A2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="33" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="18" t="s">
@@ -7535,11 +7530,11 @@
       <c r="U2" s="15"/>
       <c r="V2" s="15"/>
     </row>
-    <row r="3" spans="1:25" ht="31">
+    <row r="3" spans="1:25" ht="31.5">
       <c r="A3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="28"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="18" t="s">
         <v>23</v>
       </c>
@@ -7576,11 +7571,11 @@
       <c r="X3" s="15"/>
       <c r="Y3" s="15"/>
     </row>
-    <row r="4" spans="1:25" ht="46.5">
+    <row r="4" spans="1:25" ht="47.25">
       <c r="A4" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="18" t="s">
         <v>29</v>
       </c>
@@ -7617,11 +7612,11 @@
       <c r="X4" s="15"/>
       <c r="Y4" s="15"/>
     </row>
-    <row r="5" spans="1:25" ht="31">
+    <row r="5" spans="1:25" ht="31.5">
       <c r="A5" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="28"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="18" t="s">
         <v>35</v>
       </c>
@@ -7658,11 +7653,11 @@
       <c r="X5" s="15"/>
       <c r="Y5" s="15"/>
     </row>
-    <row r="6" spans="1:25" ht="31">
+    <row r="6" spans="1:25" ht="31.5">
       <c r="A6" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="33" t="s">
         <v>41</v>
       </c>
       <c r="C6" s="18" t="s">
@@ -7699,11 +7694,11 @@
       <c r="X6" s="15"/>
       <c r="Y6" s="15"/>
     </row>
-    <row r="7" spans="1:25" ht="31">
+    <row r="7" spans="1:25" ht="31.5">
       <c r="A7" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="28"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="18" t="s">
         <v>47</v>
       </c>
@@ -7740,11 +7735,11 @@
       <c r="X7" s="15"/>
       <c r="Y7" s="15"/>
     </row>
-    <row r="8" spans="1:25" ht="31">
+    <row r="8" spans="1:25" ht="31.5">
       <c r="A8" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="18" t="s">
         <v>51</v>
       </c>
@@ -7781,11 +7776,11 @@
       <c r="X8" s="15"/>
       <c r="Y8" s="15"/>
     </row>
-    <row r="9" spans="1:25" ht="31">
+    <row r="9" spans="1:25" ht="31.5">
       <c r="A9" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="33" t="s">
         <v>55</v>
       </c>
       <c r="C9" s="18" t="s">
@@ -7822,11 +7817,11 @@
       <c r="X9" s="15"/>
       <c r="Y9" s="15"/>
     </row>
-    <row r="10" spans="1:25" ht="31">
+    <row r="10" spans="1:25" ht="31.5">
       <c r="A10" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="28"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="18" t="s">
         <v>62</v>
       </c>
@@ -7863,11 +7858,11 @@
       <c r="X10" s="15"/>
       <c r="Y10" s="15"/>
     </row>
-    <row r="11" spans="1:25" ht="46.5">
+    <row r="11" spans="1:25" ht="47.25">
       <c r="A11" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="28"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="18" t="s">
         <v>66</v>
       </c>
@@ -7904,11 +7899,11 @@
       <c r="X11" s="15"/>
       <c r="Y11" s="15"/>
     </row>
-    <row r="12" spans="1:25" ht="31">
+    <row r="12" spans="1:25" ht="31.5">
       <c r="A12" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="28"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="18" t="s">
         <v>69</v>
       </c>
@@ -7945,11 +7940,11 @@
       <c r="X12" s="15"/>
       <c r="Y12" s="15"/>
     </row>
-    <row r="13" spans="1:25" ht="31">
+    <row r="13" spans="1:25" ht="31.5">
       <c r="A13" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="33" t="s">
         <v>73</v>
       </c>
       <c r="C13" s="18" t="s">
@@ -7986,11 +7981,11 @@
       <c r="X13" s="15"/>
       <c r="Y13" s="15"/>
     </row>
-    <row r="14" spans="1:25" ht="31">
+    <row r="14" spans="1:25" ht="31.5">
       <c r="A14" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="28"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="18" t="s">
         <v>79</v>
       </c>
@@ -8027,11 +8022,11 @@
       <c r="X14" s="15"/>
       <c r="Y14" s="15"/>
     </row>
-    <row r="15" spans="1:25" ht="46.5">
+    <row r="15" spans="1:25" ht="47.25">
       <c r="A15" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="28"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="18" t="s">
         <v>83</v>
       </c>
@@ -8068,11 +8063,11 @@
       <c r="X15" s="15"/>
       <c r="Y15" s="15"/>
     </row>
-    <row r="16" spans="1:25" ht="31">
+    <row r="16" spans="1:25" ht="31.5">
       <c r="A16" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="28"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="18" t="s">
         <v>87</v>
       </c>
@@ -8109,11 +8104,11 @@
       <c r="X16" s="15"/>
       <c r="Y16" s="15"/>
     </row>
-    <row r="17" spans="1:25" ht="31">
+    <row r="17" spans="1:25" ht="47.25">
       <c r="A17" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="33" t="s">
         <v>92</v>
       </c>
       <c r="C17" s="18" t="s">
@@ -8150,11 +8145,11 @@
       <c r="X17" s="15"/>
       <c r="Y17" s="15"/>
     </row>
-    <row r="18" spans="1:25" ht="31">
+    <row r="18" spans="1:25" ht="31.5">
       <c r="A18" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="B18" s="28"/>
+      <c r="B18" s="33"/>
       <c r="C18" s="18" t="s">
         <v>98</v>
       </c>
@@ -8191,11 +8186,11 @@
       <c r="X18" s="15"/>
       <c r="Y18" s="15"/>
     </row>
-    <row r="19" spans="1:25" ht="46.5">
+    <row r="19" spans="1:25" ht="47.25">
       <c r="A19" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="B19" s="28"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="18" t="s">
         <v>104</v>
       </c>
@@ -8232,11 +8227,11 @@
       <c r="X19" s="15"/>
       <c r="Y19" s="15"/>
     </row>
-    <row r="20" spans="1:25" ht="31">
+    <row r="20" spans="1:25" ht="31.5">
       <c r="A20" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="B20" s="28"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="21" t="s">
         <v>108</v>
       </c>
@@ -8273,11 +8268,11 @@
       <c r="X20" s="15"/>
       <c r="Y20" s="15"/>
     </row>
-    <row r="21" spans="1:25" ht="31">
+    <row r="21" spans="1:25" ht="31.5">
       <c r="A21" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="B21" s="28"/>
+      <c r="B21" s="33"/>
       <c r="C21" s="21" t="s">
         <v>113</v>
       </c>
@@ -8314,11 +8309,11 @@
       <c r="X21" s="15"/>
       <c r="Y21" s="15"/>
     </row>
-    <row r="22" spans="1:25" ht="31">
+    <row r="22" spans="1:25" ht="31.5">
       <c r="A22" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="B22" s="28"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="21" t="s">
         <v>117</v>
       </c>
@@ -8355,11 +8350,11 @@
       <c r="X22" s="15"/>
       <c r="Y22" s="15"/>
     </row>
-    <row r="23" spans="1:25" ht="46.5">
+    <row r="23" spans="1:25" ht="47.25">
       <c r="A23" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="33" t="s">
         <v>123</v>
       </c>
       <c r="C23" s="21" t="s">
@@ -8396,11 +8391,11 @@
       <c r="X23" s="15"/>
       <c r="Y23" s="15"/>
     </row>
-    <row r="24" spans="1:25" ht="31">
+    <row r="24" spans="1:25" ht="31.5">
       <c r="A24" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="B24" s="28"/>
+      <c r="B24" s="33"/>
       <c r="C24" s="21" t="s">
         <v>129</v>
       </c>
@@ -8437,11 +8432,11 @@
       <c r="X24" s="15"/>
       <c r="Y24" s="15"/>
     </row>
-    <row r="25" spans="1:25" ht="46.5">
+    <row r="25" spans="1:25" ht="47.25">
       <c r="A25" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="B25" s="28"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="21" t="s">
         <v>133</v>
       </c>
@@ -8478,11 +8473,11 @@
       <c r="X25" s="15"/>
       <c r="Y25" s="15"/>
     </row>
-    <row r="26" spans="1:25" ht="31">
+    <row r="26" spans="1:25" ht="31.5">
       <c r="A26" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="B26" s="28"/>
+      <c r="B26" s="33"/>
       <c r="C26" s="21" t="s">
         <v>137</v>
       </c>
@@ -8519,11 +8514,11 @@
       <c r="X26" s="15"/>
       <c r="Y26" s="15"/>
     </row>
-    <row r="27" spans="1:25" ht="31">
+    <row r="27" spans="1:25" ht="31.5">
       <c r="A27" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="B27" s="28"/>
+      <c r="B27" s="33"/>
       <c r="C27" s="18" t="s">
         <v>140</v>
       </c>
@@ -8560,11 +8555,11 @@
       <c r="X27" s="15"/>
       <c r="Y27" s="15"/>
     </row>
-    <row r="28" spans="1:25" ht="31">
+    <row r="28" spans="1:25" ht="31.5">
       <c r="A28" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="33" t="s">
         <v>144</v>
       </c>
       <c r="C28" s="18" t="s">
@@ -8601,11 +8596,11 @@
       <c r="X28" s="15"/>
       <c r="Y28" s="15"/>
     </row>
-    <row r="29" spans="1:25" ht="31">
+    <row r="29" spans="1:25" ht="31.5">
       <c r="A29" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="B29" s="28"/>
+      <c r="B29" s="33"/>
       <c r="C29" s="18" t="s">
         <v>150</v>
       </c>
@@ -8642,11 +8637,11 @@
       <c r="X29" s="15"/>
       <c r="Y29" s="15"/>
     </row>
-    <row r="30" spans="1:25" ht="31">
+    <row r="30" spans="1:25" ht="47.25">
       <c r="A30" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="B30" s="28"/>
+      <c r="B30" s="33"/>
       <c r="C30" s="18" t="s">
         <v>155</v>
       </c>
@@ -8683,7 +8678,7 @@
       <c r="X30" s="15"/>
       <c r="Y30" s="15"/>
     </row>
-    <row r="31" spans="1:25" ht="15.5">
+    <row r="31" spans="1:25" ht="15.75">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -8710,7 +8705,7 @@
       <c r="X31" s="15"/>
       <c r="Y31" s="15"/>
     </row>
-    <row r="32" spans="1:25" ht="15.5">
+    <row r="32" spans="1:25" ht="15.75">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -8737,7 +8732,7 @@
       <c r="X32" s="15"/>
       <c r="Y32" s="15"/>
     </row>
-    <row r="33" spans="1:25" ht="15.5">
+    <row r="33" spans="1:25" ht="15.75">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -8764,7 +8759,7 @@
       <c r="X33" s="15"/>
       <c r="Y33" s="15"/>
     </row>
-    <row r="34" spans="1:25" ht="15.5">
+    <row r="34" spans="1:25" ht="15.75">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -8791,7 +8786,7 @@
       <c r="X34" s="15"/>
       <c r="Y34" s="15"/>
     </row>
-    <row r="35" spans="1:25" ht="15.5">
+    <row r="35" spans="1:25" ht="15.75">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -8818,7 +8813,7 @@
       <c r="X35" s="15"/>
       <c r="Y35" s="15"/>
     </row>
-    <row r="36" spans="1:25" ht="15.5">
+    <row r="36" spans="1:25" ht="15.75">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -8845,7 +8840,7 @@
       <c r="X36" s="15"/>
       <c r="Y36" s="15"/>
     </row>
-    <row r="37" spans="1:25" ht="15.5">
+    <row r="37" spans="1:25" ht="15.75">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -8872,7 +8867,7 @@
       <c r="X37" s="15"/>
       <c r="Y37" s="15"/>
     </row>
-    <row r="38" spans="1:25" ht="15.5">
+    <row r="38" spans="1:25" ht="15.75">
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -8899,7 +8894,7 @@
       <c r="X38" s="15"/>
       <c r="Y38" s="15"/>
     </row>
-    <row r="39" spans="1:25" ht="15.5">
+    <row r="39" spans="1:25" ht="15.75">
       <c r="A39" s="14"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -8926,7 +8921,7 @@
       <c r="X39" s="15"/>
       <c r="Y39" s="15"/>
     </row>
-    <row r="40" spans="1:25" ht="15.5">
+    <row r="40" spans="1:25" ht="15.75">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -8953,7 +8948,7 @@
       <c r="X40" s="15"/>
       <c r="Y40" s="15"/>
     </row>
-    <row r="41" spans="1:25" ht="15.5">
+    <row r="41" spans="1:25" ht="15.75">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -8980,7 +8975,7 @@
       <c r="X41" s="15"/>
       <c r="Y41" s="15"/>
     </row>
-    <row r="42" spans="1:25" ht="15.5">
+    <row r="42" spans="1:25" ht="15.75">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -9007,7 +9002,7 @@
       <c r="X42" s="15"/>
       <c r="Y42" s="15"/>
     </row>
-    <row r="43" spans="1:25" ht="15.5">
+    <row r="43" spans="1:25" ht="15.75">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -9034,7 +9029,7 @@
       <c r="X43" s="15"/>
       <c r="Y43" s="15"/>
     </row>
-    <row r="44" spans="1:25" ht="15.5">
+    <row r="44" spans="1:25" ht="15.75">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -9061,7 +9056,7 @@
       <c r="X44" s="15"/>
       <c r="Y44" s="15"/>
     </row>
-    <row r="45" spans="1:25" ht="15.5">
+    <row r="45" spans="1:25" ht="15.75">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -9088,7 +9083,7 @@
       <c r="X45" s="15"/>
       <c r="Y45" s="15"/>
     </row>
-    <row r="46" spans="1:25" ht="15.5">
+    <row r="46" spans="1:25" ht="15.75">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -9115,7 +9110,7 @@
       <c r="X46" s="15"/>
       <c r="Y46" s="15"/>
     </row>
-    <row r="47" spans="1:25" ht="15.5">
+    <row r="47" spans="1:25" ht="15.75">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -9142,7 +9137,7 @@
       <c r="X47" s="15"/>
       <c r="Y47" s="15"/>
     </row>
-    <row r="48" spans="1:25" ht="15.5">
+    <row r="48" spans="1:25" ht="15.75">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -9169,7 +9164,7 @@
       <c r="X48" s="15"/>
       <c r="Y48" s="15"/>
     </row>
-    <row r="49" spans="1:25" ht="15.5">
+    <row r="49" spans="1:25" ht="15.75">
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
@@ -9196,7 +9191,7 @@
       <c r="X49" s="15"/>
       <c r="Y49" s="15"/>
     </row>
-    <row r="50" spans="1:25" ht="15.5">
+    <row r="50" spans="1:25" ht="15.75">
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
@@ -9223,7 +9218,7 @@
       <c r="X50" s="15"/>
       <c r="Y50" s="15"/>
     </row>
-    <row r="51" spans="1:25" ht="15.5">
+    <row r="51" spans="1:25" ht="15.75">
       <c r="A51" s="14"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
@@ -9250,7 +9245,7 @@
       <c r="X51" s="15"/>
       <c r="Y51" s="15"/>
     </row>
-    <row r="52" spans="1:25" ht="15.5">
+    <row r="52" spans="1:25" ht="15.75">
       <c r="A52" s="16"/>
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
@@ -9277,7 +9272,7 @@
       <c r="X52" s="15"/>
       <c r="Y52" s="15"/>
     </row>
-    <row r="53" spans="1:25" ht="15.5">
+    <row r="53" spans="1:25" ht="15.75">
       <c r="A53" s="16"/>
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
@@ -9304,7 +9299,7 @@
       <c r="X53" s="15"/>
       <c r="Y53" s="15"/>
     </row>
-    <row r="54" spans="1:25" ht="15.5">
+    <row r="54" spans="1:25" ht="15.75">
       <c r="A54" s="16"/>
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
@@ -9331,7 +9326,7 @@
       <c r="X54" s="15"/>
       <c r="Y54" s="15"/>
     </row>
-    <row r="55" spans="1:25" ht="15.5">
+    <row r="55" spans="1:25" ht="15.75">
       <c r="A55" s="16"/>
       <c r="B55" s="15"/>
       <c r="C55" s="15"/>
@@ -9358,7 +9353,7 @@
       <c r="X55" s="15"/>
       <c r="Y55" s="15"/>
     </row>
-    <row r="56" spans="1:25" ht="15.5">
+    <row r="56" spans="1:25" ht="15.75">
       <c r="A56" s="16"/>
       <c r="B56" s="15"/>
       <c r="C56" s="15"/>
@@ -9385,7 +9380,7 @@
       <c r="X56" s="15"/>
       <c r="Y56" s="15"/>
     </row>
-    <row r="57" spans="1:25" ht="15.5">
+    <row r="57" spans="1:25" ht="15.75">
       <c r="A57" s="16"/>
       <c r="B57" s="15"/>
       <c r="C57" s="15"/>
@@ -9412,7 +9407,7 @@
       <c r="X57" s="15"/>
       <c r="Y57" s="15"/>
     </row>
-    <row r="58" spans="1:25" ht="15.5">
+    <row r="58" spans="1:25" ht="15.75">
       <c r="A58" s="16"/>
       <c r="B58" s="15"/>
       <c r="C58" s="15"/>
@@ -9439,7 +9434,7 @@
       <c r="X58" s="15"/>
       <c r="Y58" s="15"/>
     </row>
-    <row r="59" spans="1:25" ht="15.5">
+    <row r="59" spans="1:25" ht="15.75">
       <c r="A59" s="16"/>
       <c r="B59" s="15"/>
       <c r="C59" s="15"/>
@@ -9466,7 +9461,7 @@
       <c r="X59" s="15"/>
       <c r="Y59" s="15"/>
     </row>
-    <row r="60" spans="1:25" ht="15.5">
+    <row r="60" spans="1:25" ht="15.75">
       <c r="A60" s="16"/>
       <c r="B60" s="15"/>
       <c r="C60" s="15"/>
@@ -9493,7 +9488,7 @@
       <c r="X60" s="15"/>
       <c r="Y60" s="15"/>
     </row>
-    <row r="61" spans="1:25" ht="15.5">
+    <row r="61" spans="1:25" ht="15.75">
       <c r="A61" s="16"/>
       <c r="B61" s="15"/>
       <c r="C61" s="15"/>
@@ -9520,7 +9515,7 @@
       <c r="X61" s="15"/>
       <c r="Y61" s="15"/>
     </row>
-    <row r="62" spans="1:25" ht="15.5">
+    <row r="62" spans="1:25" ht="15.75">
       <c r="A62" s="16"/>
       <c r="B62" s="15"/>
       <c r="C62" s="15"/>
@@ -9547,7 +9542,7 @@
       <c r="X62" s="15"/>
       <c r="Y62" s="15"/>
     </row>
-    <row r="63" spans="1:25" ht="15.5">
+    <row r="63" spans="1:25" ht="15.75">
       <c r="A63" s="16"/>
       <c r="B63" s="15"/>
       <c r="C63" s="15"/>
@@ -9574,7 +9569,7 @@
       <c r="X63" s="15"/>
       <c r="Y63" s="15"/>
     </row>
-    <row r="64" spans="1:25" ht="15.5">
+    <row r="64" spans="1:25" ht="15.75">
       <c r="A64" s="16"/>
       <c r="B64" s="15"/>
       <c r="C64" s="15"/>
@@ -9601,7 +9596,7 @@
       <c r="X64" s="15"/>
       <c r="Y64" s="15"/>
     </row>
-    <row r="65" spans="1:25" ht="15.5">
+    <row r="65" spans="1:25" ht="15.75">
       <c r="A65" s="16"/>
       <c r="B65" s="15"/>
       <c r="C65" s="15"/>
@@ -9628,7 +9623,7 @@
       <c r="X65" s="15"/>
       <c r="Y65" s="15"/>
     </row>
-    <row r="66" spans="1:25" ht="15.5">
+    <row r="66" spans="1:25" ht="15.75">
       <c r="A66" s="16"/>
       <c r="B66" s="15"/>
       <c r="C66" s="15"/>
@@ -9655,7 +9650,7 @@
       <c r="X66" s="15"/>
       <c r="Y66" s="15"/>
     </row>
-    <row r="67" spans="1:25" ht="15.5">
+    <row r="67" spans="1:25" ht="15.75">
       <c r="A67" s="16"/>
       <c r="B67" s="15"/>
       <c r="C67" s="15"/>
@@ -9682,7 +9677,7 @@
       <c r="X67" s="15"/>
       <c r="Y67" s="15"/>
     </row>
-    <row r="68" spans="1:25" ht="15.5">
+    <row r="68" spans="1:25" ht="15.75">
       <c r="A68" s="16"/>
       <c r="B68" s="15"/>
       <c r="C68" s="15"/>
@@ -9706,7 +9701,7 @@
       <c r="U68" s="15"/>
       <c r="V68" s="15"/>
     </row>
-    <row r="69" spans="1:25" ht="15.5">
+    <row r="69" spans="1:25" ht="15.75">
       <c r="A69" s="16"/>
       <c r="B69" s="15"/>
       <c r="C69" s="15"/>
@@ -9730,7 +9725,7 @@
       <c r="U69" s="15"/>
       <c r="V69" s="15"/>
     </row>
-    <row r="70" spans="1:25" ht="15.5">
+    <row r="70" spans="1:25" ht="15.75">
       <c r="A70" s="16"/>
       <c r="B70" s="15"/>
       <c r="C70" s="15"/>
@@ -9754,7 +9749,7 @@
       <c r="U70" s="15"/>
       <c r="V70" s="15"/>
     </row>
-    <row r="71" spans="1:25" ht="15.5">
+    <row r="71" spans="1:25" ht="15.75">
       <c r="A71" s="16"/>
       <c r="B71" s="15"/>
       <c r="C71" s="15"/>
@@ -9778,7 +9773,7 @@
       <c r="U71" s="15"/>
       <c r="V71" s="15"/>
     </row>
-    <row r="72" spans="1:25" ht="15.5">
+    <row r="72" spans="1:25" ht="15.75">
       <c r="A72" s="16"/>
       <c r="B72" s="15"/>
       <c r="C72" s="15"/>
@@ -9802,7 +9797,7 @@
       <c r="U72" s="15"/>
       <c r="V72" s="15"/>
     </row>
-    <row r="73" spans="1:25" ht="15.5">
+    <row r="73" spans="1:25" ht="15.75">
       <c r="A73" s="16"/>
       <c r="B73" s="15"/>
       <c r="C73" s="15"/>
@@ -9826,7 +9821,7 @@
       <c r="U73" s="15"/>
       <c r="V73" s="15"/>
     </row>
-    <row r="74" spans="1:25" ht="15.5">
+    <row r="74" spans="1:25" ht="15.75">
       <c r="A74" s="16"/>
       <c r="B74" s="15"/>
       <c r="C74" s="15"/>
@@ -9850,7 +9845,7 @@
       <c r="U74" s="15"/>
       <c r="V74" s="15"/>
     </row>
-    <row r="75" spans="1:25" ht="15.5">
+    <row r="75" spans="1:25" ht="15.75">
       <c r="A75" s="16"/>
       <c r="B75" s="15"/>
       <c r="C75" s="15"/>
@@ -9874,7 +9869,7 @@
       <c r="U75" s="15"/>
       <c r="V75" s="15"/>
     </row>
-    <row r="76" spans="1:25" ht="15.5">
+    <row r="76" spans="1:25" ht="15.75">
       <c r="A76" s="16"/>
       <c r="B76" s="15"/>
       <c r="C76" s="15"/>
@@ -9898,7 +9893,7 @@
       <c r="U76" s="15"/>
       <c r="V76" s="15"/>
     </row>
-    <row r="77" spans="1:25" ht="15.5">
+    <row r="77" spans="1:25" ht="15.75">
       <c r="A77" s="16"/>
       <c r="B77" s="15"/>
       <c r="C77" s="15"/>
@@ -9922,7 +9917,7 @@
       <c r="U77" s="15"/>
       <c r="V77" s="15"/>
     </row>
-    <row r="78" spans="1:25" ht="15.5">
+    <row r="78" spans="1:25" ht="15.75">
       <c r="A78" s="16"/>
       <c r="B78" s="15"/>
       <c r="C78" s="15"/>
@@ -9946,7 +9941,7 @@
       <c r="U78" s="15"/>
       <c r="V78" s="15"/>
     </row>
-    <row r="79" spans="1:25" ht="15.5">
+    <row r="79" spans="1:25" ht="15.75">
       <c r="A79" s="16"/>
       <c r="B79" s="15"/>
       <c r="C79" s="15"/>
@@ -9970,7 +9965,7 @@
       <c r="U79" s="15"/>
       <c r="V79" s="15"/>
     </row>
-    <row r="80" spans="1:25" ht="15.5">
+    <row r="80" spans="1:25" ht="15.75">
       <c r="A80" s="16"/>
       <c r="B80" s="15"/>
       <c r="C80" s="15"/>
@@ -9994,7 +9989,7 @@
       <c r="U80" s="15"/>
       <c r="V80" s="15"/>
     </row>
-    <row r="81" spans="1:22" ht="15.5">
+    <row r="81" spans="1:22" ht="15.75">
       <c r="A81" s="16"/>
       <c r="B81" s="15"/>
       <c r="C81" s="15"/>
@@ -10018,7 +10013,7 @@
       <c r="U81" s="15"/>
       <c r="V81" s="15"/>
     </row>
-    <row r="82" spans="1:22" ht="15.5">
+    <row r="82" spans="1:22" ht="15.75">
       <c r="A82" s="16"/>
       <c r="B82" s="15"/>
       <c r="C82" s="15"/>
@@ -10042,7 +10037,7 @@
       <c r="U82" s="15"/>
       <c r="V82" s="15"/>
     </row>
-    <row r="83" spans="1:22" ht="15.5">
+    <row r="83" spans="1:22" ht="15.75">
       <c r="A83" s="16"/>
       <c r="B83" s="15"/>
       <c r="C83" s="15"/>
@@ -10066,7 +10061,7 @@
       <c r="U83" s="15"/>
       <c r="V83" s="15"/>
     </row>
-    <row r="84" spans="1:22" ht="15.5">
+    <row r="84" spans="1:22" ht="15.75">
       <c r="A84" s="16"/>
       <c r="B84" s="15"/>
       <c r="C84" s="15"/>
@@ -10090,7 +10085,7 @@
       <c r="U84" s="15"/>
       <c r="V84" s="15"/>
     </row>
-    <row r="85" spans="1:22" ht="15.5">
+    <row r="85" spans="1:22" ht="15.75">
       <c r="A85" s="16"/>
       <c r="B85" s="15"/>
       <c r="C85" s="15"/>
@@ -10114,7 +10109,7 @@
       <c r="U85" s="15"/>
       <c r="V85" s="15"/>
     </row>
-    <row r="86" spans="1:22" ht="15.5">
+    <row r="86" spans="1:22" ht="15.75">
       <c r="A86" s="16"/>
       <c r="B86" s="15"/>
       <c r="C86" s="15"/>
@@ -10138,7 +10133,7 @@
       <c r="U86" s="15"/>
       <c r="V86" s="15"/>
     </row>
-    <row r="87" spans="1:22" ht="15.5">
+    <row r="87" spans="1:22" ht="15.75">
       <c r="A87" s="16"/>
       <c r="B87" s="15"/>
       <c r="C87" s="15"/>
@@ -10162,7 +10157,7 @@
       <c r="U87" s="15"/>
       <c r="V87" s="15"/>
     </row>
-    <row r="88" spans="1:22" ht="15.5">
+    <row r="88" spans="1:22" ht="15.75">
       <c r="A88" s="16"/>
       <c r="B88" s="15"/>
       <c r="C88" s="15"/>
@@ -10186,7 +10181,7 @@
       <c r="U88" s="15"/>
       <c r="V88" s="15"/>
     </row>
-    <row r="89" spans="1:22" ht="15.5">
+    <row r="89" spans="1:22" ht="15.75">
       <c r="A89" s="16"/>
       <c r="B89" s="15"/>
       <c r="C89" s="15"/>
@@ -10210,7 +10205,7 @@
       <c r="U89" s="15"/>
       <c r="V89" s="15"/>
     </row>
-    <row r="90" spans="1:22" ht="15.5">
+    <row r="90" spans="1:22" ht="15.75">
       <c r="A90" s="16"/>
       <c r="B90" s="15"/>
       <c r="C90" s="15"/>
@@ -10234,7 +10229,7 @@
       <c r="U90" s="15"/>
       <c r="V90" s="15"/>
     </row>
-    <row r="91" spans="1:22" ht="15.5">
+    <row r="91" spans="1:22" ht="15.75">
       <c r="A91" s="16"/>
       <c r="B91" s="15"/>
       <c r="C91" s="15"/>
@@ -10258,7 +10253,7 @@
       <c r="U91" s="15"/>
       <c r="V91" s="15"/>
     </row>
-    <row r="92" spans="1:22" ht="15.5">
+    <row r="92" spans="1:22" ht="15.75">
       <c r="A92" s="16"/>
       <c r="B92" s="15"/>
       <c r="C92" s="15"/>
@@ -10282,7 +10277,7 @@
       <c r="U92" s="15"/>
       <c r="V92" s="15"/>
     </row>
-    <row r="93" spans="1:22" ht="15.5">
+    <row r="93" spans="1:22" ht="15.75">
       <c r="A93" s="16"/>
       <c r="B93" s="15"/>
       <c r="C93" s="15"/>
@@ -10306,7 +10301,7 @@
       <c r="U93" s="15"/>
       <c r="V93" s="15"/>
     </row>
-    <row r="94" spans="1:22" ht="15.5">
+    <row r="94" spans="1:22" ht="15.75">
       <c r="A94" s="16"/>
       <c r="B94" s="15"/>
       <c r="C94" s="15"/>
@@ -10330,7 +10325,7 @@
       <c r="U94" s="15"/>
       <c r="V94" s="15"/>
     </row>
-    <row r="95" spans="1:22" ht="15.5">
+    <row r="95" spans="1:22" ht="15.75">
       <c r="A95" s="16"/>
       <c r="B95" s="15"/>
       <c r="C95" s="15"/>
@@ -10354,7 +10349,7 @@
       <c r="U95" s="15"/>
       <c r="V95" s="15"/>
     </row>
-    <row r="96" spans="1:22" ht="15.5">
+    <row r="96" spans="1:22" ht="15.75">
       <c r="A96" s="16"/>
       <c r="B96" s="15"/>
       <c r="C96" s="15"/>
@@ -10378,7 +10373,7 @@
       <c r="U96" s="15"/>
       <c r="V96" s="15"/>
     </row>
-    <row r="97" spans="1:22" ht="15.5">
+    <row r="97" spans="1:22" ht="15.75">
       <c r="A97" s="16"/>
       <c r="B97" s="15"/>
       <c r="C97" s="15"/>
@@ -10402,7 +10397,7 @@
       <c r="U97" s="15"/>
       <c r="V97" s="15"/>
     </row>
-    <row r="98" spans="1:22" ht="15.5">
+    <row r="98" spans="1:22" ht="15.75">
       <c r="A98" s="16"/>
       <c r="B98" s="15"/>
       <c r="C98" s="15"/>
@@ -10426,7 +10421,7 @@
       <c r="U98" s="15"/>
       <c r="V98" s="15"/>
     </row>
-    <row r="99" spans="1:22" ht="15.5">
+    <row r="99" spans="1:22" ht="15.75">
       <c r="A99" s="16"/>
       <c r="B99" s="15"/>
       <c r="C99" s="15"/>
@@ -10450,7 +10445,7 @@
       <c r="U99" s="15"/>
       <c r="V99" s="15"/>
     </row>
-    <row r="100" spans="1:22" ht="15.5">
+    <row r="100" spans="1:22" ht="15.75">
       <c r="A100" s="16"/>
       <c r="B100" s="15"/>
       <c r="C100" s="15"/>
@@ -10474,7 +10469,7 @@
       <c r="U100" s="15"/>
       <c r="V100" s="15"/>
     </row>
-    <row r="101" spans="1:22" ht="15.5">
+    <row r="101" spans="1:22" ht="15.75">
       <c r="A101" s="16"/>
       <c r="B101" s="15"/>
       <c r="C101" s="15"/>
@@ -10498,49 +10493,49 @@
       <c r="U101" s="15"/>
       <c r="V101" s="15"/>
     </row>
-    <row r="102" spans="1:22" ht="15.5"/>
-    <row r="103" spans="1:22" ht="15.5"/>
-    <row r="104" spans="1:22" ht="15.5"/>
-    <row r="105" spans="1:22" ht="15.5"/>
-    <row r="106" spans="1:22" ht="15.5"/>
-    <row r="107" spans="1:22" ht="15.5"/>
-    <row r="108" spans="1:22" ht="15.5"/>
-    <row r="109" spans="1:22" ht="15.5"/>
-    <row r="110" spans="1:22" ht="15.5"/>
-    <row r="111" spans="1:22" ht="15.5"/>
-    <row r="112" spans="1:22" ht="15.5"/>
-    <row r="113" ht="15.5"/>
-    <row r="114" ht="15.5"/>
-    <row r="115" ht="15.5"/>
-    <row r="116" ht="15.5"/>
-    <row r="117" ht="15.5"/>
-    <row r="118" ht="15.5"/>
-    <row r="119" ht="15.5"/>
-    <row r="120" ht="15.5"/>
-    <row r="121" ht="15.5"/>
-    <row r="122" ht="15.5"/>
-    <row r="123" ht="15.5"/>
-    <row r="124" ht="15.5"/>
-    <row r="125" ht="15.5"/>
-    <row r="126" ht="15.5"/>
-    <row r="127" ht="15.5"/>
-    <row r="128" ht="15.5"/>
-    <row r="129" ht="15.5"/>
-    <row r="130" ht="15.5"/>
-    <row r="131" ht="15.5"/>
-    <row r="132" ht="15.5"/>
-    <row r="133" ht="15.5"/>
-    <row r="134" ht="15.5"/>
-    <row r="135" ht="15.5"/>
-    <row r="136" ht="15.5"/>
-    <row r="137" ht="15.5"/>
-    <row r="138" ht="15.5"/>
-    <row r="139" ht="15.5"/>
-    <row r="140" ht="15.5"/>
-    <row r="141" ht="15.5"/>
-    <row r="142" ht="15.5"/>
-    <row r="143" ht="15.5"/>
-    <row r="144" ht="15.5"/>
+    <row r="102" spans="1:22" ht="15.75"/>
+    <row r="103" spans="1:22" ht="15.75"/>
+    <row r="104" spans="1:22" ht="15.75"/>
+    <row r="105" spans="1:22" ht="15.75"/>
+    <row r="106" spans="1:22" ht="15.75"/>
+    <row r="107" spans="1:22" ht="15.75"/>
+    <row r="108" spans="1:22" ht="15.75"/>
+    <row r="109" spans="1:22" ht="15.75"/>
+    <row r="110" spans="1:22" ht="15.75"/>
+    <row r="111" spans="1:22" ht="15.75"/>
+    <row r="112" spans="1:22" ht="15.75"/>
+    <row r="113" ht="15.75"/>
+    <row r="114" ht="15.75"/>
+    <row r="115" ht="15.75"/>
+    <row r="116" ht="15.75"/>
+    <row r="117" ht="15.75"/>
+    <row r="118" ht="15.75"/>
+    <row r="119" ht="15.75"/>
+    <row r="120" ht="15.75"/>
+    <row r="121" ht="15.75"/>
+    <row r="122" ht="15.75"/>
+    <row r="123" ht="15.75"/>
+    <row r="124" ht="15.75"/>
+    <row r="125" ht="15.75"/>
+    <row r="126" ht="15.75"/>
+    <row r="127" ht="15.75"/>
+    <row r="128" ht="15.75"/>
+    <row r="129" ht="15.75"/>
+    <row r="130" ht="15.75"/>
+    <row r="131" ht="15.75"/>
+    <row r="132" ht="15.75"/>
+    <row r="133" ht="15.75"/>
+    <row r="134" ht="15.75"/>
+    <row r="135" ht="15.75"/>
+    <row r="136" ht="15.75"/>
+    <row r="137" ht="15.75"/>
+    <row r="138" ht="15.75"/>
+    <row r="139" ht="15.75"/>
+    <row r="140" ht="15.75"/>
+    <row r="141" ht="15.75"/>
+    <row r="142" ht="15.75"/>
+    <row r="143" ht="15.75"/>
+    <row r="144" ht="15.75"/>
   </sheetData>
   <autoFilter ref="A1:H29"/>
   <mergeCells count="7">
@@ -10569,19 +10564,19 @@
       <selection pane="bottomLeft" sqref="A1:H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" customWidth="1"/>
-    <col min="2" max="2" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.26953125" customWidth="1"/>
-    <col min="4" max="4" width="39.1796875" customWidth="1"/>
-    <col min="5" max="5" width="15.1796875" customWidth="1"/>
-    <col min="6" max="6" width="40.81640625" customWidth="1"/>
-    <col min="7" max="7" width="29.7265625" customWidth="1"/>
-    <col min="8" max="22" width="15.1796875" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="40.85546875" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" customWidth="1"/>
+    <col min="8" max="22" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.5">
+    <row r="1" spans="1:25" ht="15.75">
       <c r="A1" s="17" t="s">
         <v>7</v>
       </c>
@@ -10621,11 +10616,11 @@
       <c r="U1" s="4"/>
       <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="1:25" ht="46.5">
+    <row r="2" spans="1:25" ht="47.25">
       <c r="A2" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="33" t="s">
         <v>159</v>
       </c>
       <c r="C2" s="18" t="s">
@@ -10659,11 +10654,11 @@
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
     </row>
-    <row r="3" spans="1:25" ht="77.5">
+    <row r="3" spans="1:25" ht="78.75">
       <c r="A3" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="B3" s="28"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="18" t="s">
         <v>165</v>
       </c>
@@ -10697,11 +10692,11 @@
       <c r="U3" s="4"/>
       <c r="V3" s="4"/>
     </row>
-    <row r="4" spans="1:25" ht="46.5">
+    <row r="4" spans="1:25" ht="47.25">
       <c r="A4" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="18" t="s">
         <v>171</v>
       </c>
@@ -10735,7 +10730,7 @@
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
     </row>
-    <row r="5" spans="1:25" ht="62">
+    <row r="5" spans="1:25" ht="63">
       <c r="A5" s="21" t="s">
         <v>174</v>
       </c>
@@ -10773,11 +10768,11 @@
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
     </row>
-    <row r="6" spans="1:25" ht="46.5">
+    <row r="6" spans="1:25" ht="47.25">
       <c r="A6" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="34" t="s">
         <v>180</v>
       </c>
       <c r="C6" s="21" t="s">
@@ -10811,11 +10806,11 @@
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
     </row>
-    <row r="7" spans="1:25" ht="31">
+    <row r="7" spans="1:25" ht="31.5">
       <c r="A7" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="B7" s="29"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="21" t="s">
         <v>23</v>
       </c>
@@ -10849,11 +10844,11 @@
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
     </row>
-    <row r="8" spans="1:25" ht="31">
+    <row r="8" spans="1:25" ht="31.5">
       <c r="A8" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="B8" s="29"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="21" t="s">
         <v>29</v>
       </c>
@@ -10887,11 +10882,11 @@
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
     </row>
-    <row r="9" spans="1:25" ht="31">
+    <row r="9" spans="1:25" ht="31.5">
       <c r="A9" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="B9" s="29"/>
+      <c r="B9" s="34"/>
       <c r="C9" s="21" t="s">
         <v>35</v>
       </c>
@@ -10925,11 +10920,11 @@
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
     </row>
-    <row r="10" spans="1:25" ht="31">
+    <row r="10" spans="1:25" ht="31.5">
       <c r="A10" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="33" t="s">
         <v>41</v>
       </c>
       <c r="C10" s="18" t="s">
@@ -10963,11 +10958,11 @@
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
     </row>
-    <row r="11" spans="1:25" ht="31">
+    <row r="11" spans="1:25" ht="31.5">
       <c r="A11" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="B11" s="28"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="18" t="s">
         <v>47</v>
       </c>
@@ -11004,11 +10999,11 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="1:25" ht="31">
+    <row r="12" spans="1:25" ht="31.5">
       <c r="A12" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="B12" s="28"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="18" t="s">
         <v>51</v>
       </c>
@@ -11045,11 +11040,11 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
     </row>
-    <row r="13" spans="1:25" ht="31">
+    <row r="13" spans="1:25" ht="31.5">
       <c r="A13" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="33" t="s">
         <v>55</v>
       </c>
       <c r="C13" s="18" t="s">
@@ -11086,11 +11081,11 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
     </row>
-    <row r="14" spans="1:25" ht="31">
+    <row r="14" spans="1:25" ht="31.5">
       <c r="A14" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="B14" s="28"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="18" t="s">
         <v>62</v>
       </c>
@@ -11122,11 +11117,11 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="1:25" ht="31">
+    <row r="15" spans="1:25" ht="31.5">
       <c r="A15" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="B15" s="28"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="18" t="s">
         <v>66</v>
       </c>
@@ -11158,11 +11153,11 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="1:25" ht="31">
+    <row r="16" spans="1:25" ht="31.5">
       <c r="A16" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="B16" s="28"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="18" t="s">
         <v>69</v>
       </c>
@@ -11194,11 +11189,11 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="1:20" ht="31">
+    <row r="17" spans="1:20" ht="31.5">
       <c r="A17" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="33" t="s">
         <v>73</v>
       </c>
       <c r="C17" s="18" t="s">
@@ -11230,11 +11225,11 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="1:20" ht="31">
+    <row r="18" spans="1:20" ht="31.5">
       <c r="A18" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="B18" s="28"/>
+      <c r="B18" s="33"/>
       <c r="C18" s="18" t="s">
         <v>79</v>
       </c>
@@ -11266,11 +11261,11 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="1:20" ht="31">
+    <row r="19" spans="1:20" ht="31.5">
       <c r="A19" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="B19" s="28"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="18" t="s">
         <v>83</v>
       </c>
@@ -11302,11 +11297,11 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="1:20" ht="31">
+    <row r="20" spans="1:20" ht="31.5">
       <c r="A20" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="B20" s="28"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="18" t="s">
         <v>87</v>
       </c>
@@ -11338,11 +11333,11 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="1:20" ht="31">
+    <row r="21" spans="1:20" ht="47.25">
       <c r="A21" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="33" t="s">
         <v>92</v>
       </c>
       <c r="C21" s="18" t="s">
@@ -11374,11 +11369,11 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22" spans="1:20" ht="31">
+    <row r="22" spans="1:20" ht="31.5">
       <c r="A22" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="B22" s="28"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="18" t="s">
         <v>98</v>
       </c>
@@ -11410,11 +11405,11 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23" spans="1:20" ht="31">
+    <row r="23" spans="1:20" ht="31.5">
       <c r="A23" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="B23" s="28"/>
+      <c r="B23" s="33"/>
       <c r="C23" s="18" t="s">
         <v>104</v>
       </c>
@@ -11446,11 +11441,11 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24" spans="1:20" ht="31">
+    <row r="24" spans="1:20" ht="31.5">
       <c r="A24" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="B24" s="28"/>
+      <c r="B24" s="33"/>
       <c r="C24" s="21" t="s">
         <v>108</v>
       </c>
@@ -11482,11 +11477,11 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25" spans="1:20" ht="31">
+    <row r="25" spans="1:20" ht="31.5">
       <c r="A25" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="B25" s="28"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="23" t="s">
         <v>113</v>
       </c>
@@ -11518,11 +11513,11 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row r="26" spans="1:20" ht="31">
+    <row r="26" spans="1:20" ht="31.5">
       <c r="A26" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="B26" s="28"/>
+      <c r="B26" s="33"/>
       <c r="C26" s="18" t="s">
         <v>117</v>
       </c>
@@ -11554,11 +11549,11 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row r="27" spans="1:20" ht="46.5">
+    <row r="27" spans="1:20" ht="47.25">
       <c r="A27" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="33" t="s">
         <v>123</v>
       </c>
       <c r="C27" s="18" t="s">
@@ -11590,11 +11585,11 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28" spans="1:20" ht="31">
+    <row r="28" spans="1:20" ht="31.5">
       <c r="A28" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="B28" s="28"/>
+      <c r="B28" s="33"/>
       <c r="C28" s="18" t="s">
         <v>129</v>
       </c>
@@ -11626,11 +11621,11 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row r="29" spans="1:20" ht="31">
+    <row r="29" spans="1:20" ht="31.5">
       <c r="A29" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="B29" s="28"/>
+      <c r="B29" s="33"/>
       <c r="C29" s="18" t="s">
         <v>133</v>
       </c>
@@ -11662,11 +11657,11 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row r="30" spans="1:20" ht="31">
+    <row r="30" spans="1:20" ht="31.5">
       <c r="A30" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="B30" s="28"/>
+      <c r="B30" s="33"/>
       <c r="C30" s="21" t="s">
         <v>137</v>
       </c>
@@ -11698,11 +11693,11 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row r="31" spans="1:20" ht="31">
+    <row r="31" spans="1:20" ht="31.5">
       <c r="A31" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="B31" s="28"/>
+      <c r="B31" s="33"/>
       <c r="C31" s="18" t="s">
         <v>140</v>
       </c>
@@ -11734,11 +11729,11 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row r="32" spans="1:20" ht="31">
+    <row r="32" spans="1:20" ht="31.5">
       <c r="A32" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="33" t="s">
         <v>144</v>
       </c>
       <c r="C32" s="18" t="s">
@@ -11770,11 +11765,11 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row r="33" spans="1:25" ht="31">
+    <row r="33" spans="1:25" ht="31.5">
       <c r="A33" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="B33" s="28"/>
+      <c r="B33" s="33"/>
       <c r="C33" s="18" t="s">
         <v>150</v>
       </c>
@@ -11806,11 +11801,11 @@
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
     </row>
-    <row r="34" spans="1:25" ht="31">
+    <row r="34" spans="1:25" ht="47.25">
       <c r="A34" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="B34" s="28"/>
+      <c r="B34" s="33"/>
       <c r="C34" s="18" t="s">
         <v>155</v>
       </c>
@@ -13729,19 +13724,19 @@
       <selection pane="bottomLeft" activeCell="C16" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" customWidth="1"/>
-    <col min="2" max="2" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.26953125" customWidth="1"/>
-    <col min="4" max="4" width="39.1796875" customWidth="1"/>
-    <col min="5" max="5" width="15.1796875" customWidth="1"/>
-    <col min="6" max="6" width="40.81640625" customWidth="1"/>
-    <col min="7" max="7" width="29.7265625" customWidth="1"/>
-    <col min="8" max="22" width="15.1796875" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="40.85546875" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" customWidth="1"/>
+    <col min="8" max="22" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.5">
+    <row r="1" spans="1:25" ht="15.75">
       <c r="A1" s="17" t="s">
         <v>7</v>
       </c>
@@ -13781,11 +13776,11 @@
       <c r="U1" s="4"/>
       <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="1:25" ht="46.5">
+    <row r="2" spans="1:25" ht="47.25">
       <c r="A2" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="33" t="s">
         <v>159</v>
       </c>
       <c r="C2" s="18" t="s">
@@ -13819,11 +13814,11 @@
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
     </row>
-    <row r="3" spans="1:25" ht="77.5">
+    <row r="3" spans="1:25" ht="78.75">
       <c r="A3" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="B3" s="28"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="18" t="s">
         <v>165</v>
       </c>
@@ -13860,11 +13855,11 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:25" ht="46.5">
+    <row r="4" spans="1:25" ht="47.25">
       <c r="A4" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="18" t="s">
         <v>171</v>
       </c>
@@ -13901,11 +13896,11 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:25" ht="31">
+    <row r="5" spans="1:25" ht="31.5">
       <c r="A5" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="B5" s="28"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="21" t="s">
         <v>226</v>
       </c>
@@ -13942,11 +13937,11 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:25" ht="31">
+    <row r="6" spans="1:25" ht="31.5">
       <c r="A6" s="18" t="s">
         <v>228</v>
       </c>
-      <c r="B6" s="28"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="18" t="s">
         <v>229</v>
       </c>
@@ -16298,19 +16293,19 @@
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" customWidth="1"/>
-    <col min="2" max="2" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.26953125" customWidth="1"/>
-    <col min="4" max="4" width="39.1796875" customWidth="1"/>
-    <col min="5" max="5" width="15.1796875" customWidth="1"/>
-    <col min="6" max="6" width="44.1796875" customWidth="1"/>
-    <col min="7" max="7" width="29.7265625" customWidth="1"/>
-    <col min="8" max="22" width="15.1796875" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="44.140625" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" customWidth="1"/>
+    <col min="8" max="22" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.5">
+    <row r="1" spans="1:25" ht="15.75">
       <c r="A1" s="24" t="s">
         <v>7</v>
       </c>
@@ -16350,11 +16345,11 @@
       <c r="U1" s="4"/>
       <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="1:25" ht="46.5">
+    <row r="2" spans="1:25" ht="47.25">
       <c r="A2" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="33" t="s">
         <v>159</v>
       </c>
       <c r="C2" s="18" t="s">
@@ -16388,11 +16383,11 @@
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
     </row>
-    <row r="3" spans="1:25" ht="31">
+    <row r="3" spans="1:25" ht="31.5">
       <c r="A3" s="25" t="s">
         <v>233</v>
       </c>
-      <c r="B3" s="28"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="18" t="s">
         <v>165</v>
       </c>
@@ -16429,11 +16424,11 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:25" ht="31">
+    <row r="4" spans="1:25" ht="31.5">
       <c r="A4" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="18" t="s">
         <v>171</v>
       </c>
@@ -16470,11 +16465,11 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:25" ht="31">
+    <row r="5" spans="1:25" ht="31.5">
       <c r="A5" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="B5" s="28"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="21" t="s">
         <v>226</v>
       </c>
@@ -16511,11 +16506,11 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:25" ht="31">
+    <row r="6" spans="1:25" ht="31.5">
       <c r="A6" s="25" t="s">
         <v>236</v>
       </c>
-      <c r="B6" s="28"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="18" t="s">
         <v>229</v>
       </c>
@@ -16552,11 +16547,11 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7" spans="1:25" ht="46.5">
+    <row r="7" spans="1:25" ht="47.25">
       <c r="A7" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="33" t="s">
         <v>238</v>
       </c>
       <c r="C7" s="18" t="s">
@@ -16588,11 +16583,11 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:25" ht="31">
+    <row r="8" spans="1:25" ht="31.5">
       <c r="A8" s="25" t="s">
         <v>242</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="18" t="s">
         <v>243</v>
       </c>
@@ -16624,11 +16619,11 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:25" ht="31">
+    <row r="9" spans="1:25" ht="31.5">
       <c r="A9" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="B9" s="28"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="18" t="s">
         <v>247</v>
       </c>
@@ -16660,11 +16655,11 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="1:25" ht="31">
+    <row r="10" spans="1:25" ht="31.5">
       <c r="A10" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="B10" s="28"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="21" t="s">
         <v>251</v>
       </c>
@@ -16696,11 +16691,11 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="1:25" ht="31">
+    <row r="11" spans="1:25" ht="31.5">
       <c r="A11" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="B11" s="28"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="18" t="s">
         <v>254</v>
       </c>
@@ -18965,19 +18960,19 @@
       <selection pane="bottomLeft" activeCell="D8" sqref="A1:H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" customWidth="1"/>
-    <col min="2" max="2" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.26953125" customWidth="1"/>
-    <col min="4" max="4" width="39.1796875" customWidth="1"/>
-    <col min="5" max="5" width="15.1796875" customWidth="1"/>
-    <col min="6" max="6" width="40.81640625" customWidth="1"/>
-    <col min="7" max="7" width="29.7265625" customWidth="1"/>
-    <col min="8" max="22" width="15.1796875" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="40.85546875" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" customWidth="1"/>
+    <col min="8" max="22" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.5">
+    <row r="1" spans="1:25" ht="15.75">
       <c r="A1" s="17" t="s">
         <v>7</v>
       </c>
@@ -19017,11 +19012,11 @@
       <c r="U1" s="4"/>
       <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="1:25" ht="46.5">
+    <row r="2" spans="1:25" ht="47.25">
       <c r="A2" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="33" t="s">
         <v>258</v>
       </c>
       <c r="C2" s="18" t="s">
@@ -19055,11 +19050,11 @@
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
     </row>
-    <row r="3" spans="1:25" ht="31">
+    <row r="3" spans="1:25" ht="31.5">
       <c r="A3" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="B3" s="28"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="18" t="s">
         <v>264</v>
       </c>
@@ -19096,11 +19091,11 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:25" ht="46.5">
+    <row r="4" spans="1:25" ht="47.25">
       <c r="A4" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="18" t="s">
         <v>268</v>
       </c>
@@ -19137,11 +19132,11 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:25" ht="31">
+    <row r="5" spans="1:25" ht="31.5">
       <c r="A5" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="B5" s="28"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="21" t="s">
         <v>271</v>
       </c>
@@ -19178,11 +19173,11 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:25" ht="31">
+    <row r="6" spans="1:25" ht="31.5">
       <c r="A6" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="B6" s="28"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="18" t="s">
         <v>273</v>
       </c>
@@ -19214,7 +19209,7 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:25" ht="62">
+    <row r="7" spans="1:25" ht="63">
       <c r="A7" s="18" t="s">
         <v>275</v>
       </c>
@@ -19250,11 +19245,11 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:25" ht="46.5">
+    <row r="8" spans="1:25" ht="47.25">
       <c r="A8" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="33" t="s">
         <v>159</v>
       </c>
       <c r="C8" s="18" t="s">
@@ -19286,11 +19281,11 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:25" ht="31">
+    <row r="9" spans="1:25" ht="31.5">
       <c r="A9" s="18" t="s">
         <v>282</v>
       </c>
-      <c r="B9" s="28"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="18" t="s">
         <v>165</v>
       </c>
@@ -19322,11 +19317,11 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="1:25" ht="31">
+    <row r="10" spans="1:25" ht="31.5">
       <c r="A10" s="18" t="s">
         <v>283</v>
       </c>
-      <c r="B10" s="28"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="18" t="s">
         <v>171</v>
       </c>
@@ -19358,11 +19353,11 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="1:25" ht="31">
+    <row r="11" spans="1:25" ht="31.5">
       <c r="A11" s="18" t="s">
         <v>284</v>
       </c>
-      <c r="B11" s="28"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="21" t="s">
         <v>226</v>
       </c>
@@ -19394,11 +19389,11 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:25" ht="31">
+    <row r="12" spans="1:25" ht="31.5">
       <c r="A12" s="18" t="s">
         <v>285</v>
       </c>
-      <c r="B12" s="28"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="18" t="s">
         <v>229</v>
       </c>
@@ -19430,11 +19425,11 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:25" ht="31">
+    <row r="13" spans="1:25" ht="31.5">
       <c r="A13" s="18" t="s">
         <v>286</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="33" t="s">
         <v>287</v>
       </c>
       <c r="C13" s="18" t="s">
@@ -19466,11 +19461,11 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="1:25" ht="31">
+    <row r="14" spans="1:25" ht="31.5">
       <c r="A14" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="B14" s="28"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="18" t="s">
         <v>292</v>
       </c>
@@ -19502,11 +19497,11 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="1:25" ht="31">
+    <row r="15" spans="1:25" ht="31.5">
       <c r="A15" s="18" t="s">
         <v>294</v>
       </c>
-      <c r="B15" s="28"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="18" t="s">
         <v>295</v>
       </c>
@@ -19538,11 +19533,11 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="1:25" ht="31">
+    <row r="16" spans="1:25" ht="31.5">
       <c r="A16" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="B16" s="28"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="21" t="s">
         <v>298</v>
       </c>
@@ -19574,11 +19569,11 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="1:25" ht="31">
+    <row r="17" spans="1:25" ht="31.5">
       <c r="A17" s="18" t="s">
         <v>299</v>
       </c>
-      <c r="B17" s="28"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="18" t="s">
         <v>300</v>
       </c>
@@ -21712,19 +21707,19 @@
       <selection pane="bottomLeft" activeCell="D6" sqref="A1:H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" customWidth="1"/>
-    <col min="2" max="2" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.26953125" customWidth="1"/>
-    <col min="4" max="4" width="39.1796875" customWidth="1"/>
-    <col min="5" max="5" width="15.1796875" customWidth="1"/>
-    <col min="6" max="6" width="40.81640625" customWidth="1"/>
-    <col min="7" max="7" width="29.7265625" customWidth="1"/>
-    <col min="8" max="22" width="15.1796875" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="40.85546875" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" customWidth="1"/>
+    <col min="8" max="22" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.5">
+    <row r="1" spans="1:25" ht="15.75">
       <c r="A1" s="17" t="s">
         <v>7</v>
       </c>
@@ -21764,11 +21759,11 @@
       <c r="U1" s="4"/>
       <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="1:25" ht="46.5">
+    <row r="2" spans="1:25" ht="47.25">
       <c r="A2" s="18" t="s">
         <v>302</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="33" t="s">
         <v>258</v>
       </c>
       <c r="C2" s="18" t="s">
@@ -21802,11 +21797,11 @@
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
     </row>
-    <row r="3" spans="1:25" ht="31">
+    <row r="3" spans="1:25" ht="31.5">
       <c r="A3" s="18" t="s">
         <v>303</v>
       </c>
-      <c r="B3" s="28"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="18" t="s">
         <v>264</v>
       </c>
@@ -21843,11 +21838,11 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:25" ht="46.5">
+    <row r="4" spans="1:25" ht="47.25">
       <c r="A4" s="18" t="s">
         <v>304</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="18" t="s">
         <v>268</v>
       </c>
@@ -21884,11 +21879,11 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:25" ht="31">
+    <row r="5" spans="1:25" ht="31.5">
       <c r="A5" s="18" t="s">
         <v>305</v>
       </c>
-      <c r="B5" s="28"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="21" t="s">
         <v>271</v>
       </c>
@@ -21925,11 +21920,11 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:25" ht="31">
+    <row r="6" spans="1:25" ht="31.5">
       <c r="A6" s="18" t="s">
         <v>306</v>
       </c>
-      <c r="B6" s="28"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="18" t="s">
         <v>273</v>
       </c>
@@ -24281,19 +24276,19 @@
       <selection pane="bottomLeft" activeCell="C12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" customWidth="1"/>
-    <col min="2" max="2" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.26953125" customWidth="1"/>
-    <col min="4" max="4" width="39.1796875" customWidth="1"/>
-    <col min="5" max="5" width="15.1796875" customWidth="1"/>
-    <col min="6" max="6" width="40.81640625" customWidth="1"/>
-    <col min="7" max="7" width="29.7265625" customWidth="1"/>
-    <col min="8" max="22" width="15.1796875" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="40.85546875" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" customWidth="1"/>
+    <col min="8" max="22" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.5">
+    <row r="1" spans="1:25" ht="15.75">
       <c r="A1" s="17" t="s">
         <v>7</v>
       </c>
@@ -24333,11 +24328,11 @@
       <c r="U1" s="4"/>
       <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="1:25" ht="46.5">
+    <row r="2" spans="1:25" ht="47.25">
       <c r="A2" s="18" t="s">
         <v>307</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="33" t="s">
         <v>308</v>
       </c>
       <c r="C2" s="18" t="s">
@@ -24371,11 +24366,11 @@
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
     </row>
-    <row r="3" spans="1:25" ht="31">
+    <row r="3" spans="1:25" ht="31.5">
       <c r="A3" s="18" t="s">
         <v>312</v>
       </c>
-      <c r="B3" s="28"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="18" t="s">
         <v>313</v>
       </c>
@@ -24412,11 +24407,11 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:25" ht="46.5">
+    <row r="4" spans="1:25" ht="47.25">
       <c r="A4" s="18" t="s">
         <v>316</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="18" t="s">
         <v>317</v>
       </c>
@@ -24453,11 +24448,11 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:25" ht="31">
+    <row r="5" spans="1:25" ht="31.5">
       <c r="A5" s="18" t="s">
         <v>319</v>
       </c>
-      <c r="B5" s="28"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="21" t="s">
         <v>320</v>
       </c>
@@ -24494,11 +24489,11 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:25" ht="31">
+    <row r="6" spans="1:25" ht="31.5">
       <c r="A6" s="18" t="s">
         <v>321</v>
       </c>
-      <c r="B6" s="28"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="18" t="s">
         <v>322</v>
       </c>
@@ -26850,19 +26845,19 @@
       <selection pane="bottomLeft" activeCell="D9" sqref="A1:H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" customWidth="1"/>
-    <col min="2" max="2" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.26953125" customWidth="1"/>
-    <col min="4" max="4" width="39.1796875" customWidth="1"/>
-    <col min="5" max="5" width="15.1796875" customWidth="1"/>
-    <col min="6" max="6" width="46.81640625" customWidth="1"/>
-    <col min="7" max="7" width="29.7265625" customWidth="1"/>
-    <col min="8" max="22" width="15.1796875" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="46.85546875" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" customWidth="1"/>
+    <col min="8" max="22" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.5">
+    <row r="1" spans="1:25" ht="15.75">
       <c r="A1" s="17" t="s">
         <v>7</v>
       </c>
@@ -26902,11 +26897,11 @@
       <c r="U1" s="4"/>
       <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="1:25" ht="46.5">
+    <row r="2" spans="1:25" ht="47.25">
       <c r="A2" s="18" t="s">
         <v>324</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="33" t="s">
         <v>258</v>
       </c>
       <c r="C2" s="18" t="s">
@@ -26940,11 +26935,11 @@
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
     </row>
-    <row r="3" spans="1:25" ht="31">
+    <row r="3" spans="1:25" ht="31.5">
       <c r="A3" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="B3" s="28"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="18" t="s">
         <v>313</v>
       </c>
@@ -26981,11 +26976,11 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:25" ht="46.5">
+    <row r="4" spans="1:25" ht="47.25">
       <c r="A4" s="18" t="s">
         <v>327</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="18" t="s">
         <v>317</v>
       </c>
@@ -27022,11 +27017,11 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:25" ht="31">
+    <row r="5" spans="1:25" ht="31.5">
       <c r="A5" s="18" t="s">
         <v>328</v>
       </c>
-      <c r="B5" s="28"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="21" t="s">
         <v>320</v>
       </c>
@@ -27063,11 +27058,11 @@
       <c r="X5" s="11"/>
       <c r="Y5" s="11"/>
     </row>
-    <row r="6" spans="1:25" ht="31">
+    <row r="6" spans="1:25" ht="31.5">
       <c r="A6" s="18" t="s">
         <v>330</v>
       </c>
-      <c r="B6" s="28"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="21" t="s">
         <v>322</v>
       </c>
@@ -27099,11 +27094,11 @@
       <c r="S6" s="11"/>
       <c r="T6" s="11"/>
     </row>
-    <row r="7" spans="1:25" ht="46.5">
+    <row r="7" spans="1:25" ht="47.25">
       <c r="A7" s="18" t="s">
         <v>331</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="33" t="s">
         <v>332</v>
       </c>
       <c r="C7" s="18" t="s">
@@ -27135,11 +27130,11 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:25" ht="31">
+    <row r="8" spans="1:25" ht="31.5">
       <c r="A8" s="18" t="s">
         <v>336</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="18" t="s">
         <v>337</v>
       </c>
@@ -27171,11 +27166,11 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:25" ht="31">
+    <row r="9" spans="1:25" ht="31.5">
       <c r="A9" s="18" t="s">
         <v>340</v>
       </c>
-      <c r="B9" s="28"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="18" t="s">
         <v>341</v>
       </c>
@@ -27207,11 +27202,11 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="1:25" ht="31">
+    <row r="10" spans="1:25" ht="31.5">
       <c r="A10" s="18" t="s">
         <v>343</v>
       </c>
-      <c r="B10" s="28"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="21" t="s">
         <v>344</v>
       </c>
@@ -27243,11 +27238,11 @@
       <c r="S10" s="11"/>
       <c r="T10" s="11"/>
     </row>
-    <row r="11" spans="1:25" ht="31">
+    <row r="11" spans="1:25" ht="31.5">
       <c r="A11" s="18" t="s">
         <v>345</v>
       </c>
-      <c r="B11" s="28"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="21" t="s">
         <v>346</v>
       </c>
@@ -27279,11 +27274,11 @@
       <c r="S11" s="11"/>
       <c r="T11" s="11"/>
     </row>
-    <row r="12" spans="1:25" ht="46.5">
+    <row r="12" spans="1:25" ht="47.25">
       <c r="A12" s="18" t="s">
         <v>348</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="33" t="s">
         <v>349</v>
       </c>
       <c r="C12" s="18" t="s">
@@ -27315,11 +27310,11 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:25" ht="31">
+    <row r="13" spans="1:25" ht="31.5">
       <c r="A13" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="B13" s="28"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="18" t="s">
         <v>354</v>
       </c>
@@ -27351,11 +27346,11 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="1:25" ht="31">
+    <row r="14" spans="1:25" ht="31.5">
       <c r="A14" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="B14" s="28"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="18" t="s">
         <v>358</v>
       </c>
@@ -27387,11 +27382,11 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="1:25" ht="31">
+    <row r="15" spans="1:25" ht="31.5">
       <c r="A15" s="18" t="s">
         <v>360</v>
       </c>
-      <c r="B15" s="28"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="21" t="s">
         <v>361</v>
       </c>
@@ -27423,11 +27418,11 @@
       <c r="S15" s="11"/>
       <c r="T15" s="11"/>
     </row>
-    <row r="16" spans="1:25" ht="46.5">
+    <row r="16" spans="1:25" ht="47.25">
       <c r="A16" s="18" t="s">
         <v>363</v>
       </c>
-      <c r="B16" s="28"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="21" t="s">
         <v>364</v>
       </c>
